--- a/resource/filePresupuesto/Presupuesto0011.xlsx
+++ b/resource/filePresupuesto/Presupuesto0011.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t/>
   </si>
   <si>
-    <t>HOSPITAL GENERAL DE 120 CAMAS DE CHONE TIPO COSTA</t>
+    <t>PROYECTO DE SISTEMA CONTRA INCENDIO DE  VACA GALINDO</t>
   </si>
   <si>
     <t>CONSTRUDIPRO S.A.</t>
@@ -26,13 +26,13 @@
     <t>TABLA DE CANTIDADES REALES</t>
   </si>
   <si>
-    <t>OFERTA: INGEHISA 006 - REV 001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guayaquil, </t>
-  </si>
-  <si>
-    <t>INGENIERIA HIDROSANITARIA</t>
+    <t>OFERTA: INGEHISA 0016 - REV 001</t>
+  </si>
+  <si>
+    <t>Guayaquil, 22 de enero del 2018</t>
+  </si>
+  <si>
+    <t>INGENIERIA HIDROSANITARIA Y SISTEMA CONTRA INCENDIO</t>
   </si>
   <si>
     <t>NUMERACION</t>
@@ -53,16 +53,25 @@
     <t>PRECIO TOTAL</t>
   </si>
   <si>
-    <t>jTextField6</t>
-  </si>
-  <si>
-    <t>jTextField5</t>
+    <t>Suministro e Instalacion de tuberia de H/N Ced.40 de 4"</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>Suministro e Instalacion de tuberia de H/N Ced.40 de 3"</t>
+  </si>
+  <si>
+    <t>GHJMGHJM</t>
+  </si>
+  <si>
+    <t>HJMH</t>
   </si>
   <si>
     <t>SUBTOTAL</t>
   </si>
   <si>
-    <t>IVA 12.0%</t>
+    <t>IVA 12%</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -71,10 +80,13 @@
     <t xml:space="preserve">Nota: En esta oferta no se incluye lo siguiente: </t>
   </si>
   <si>
-    <t>vxvxvx</t>
-  </si>
-  <si>
-    <t>cbbcvbcv</t>
+    <t>KJADFHNVOIDFNV</t>
+  </si>
+  <si>
+    <t>DFVDF</t>
+  </si>
+  <si>
+    <t>DFVDFV</t>
   </si>
 </sst>
 </file>
@@ -233,7 +245,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="15.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.86328125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="15.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="12.48828125" customWidth="true" bestFit="true"/>
   </cols>
@@ -361,48 +373,66 @@
         <v>14</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>4.0</v>
+        <v>120.0</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>485.96</v>
+        <v>29.86</v>
       </c>
       <c r="L8" s="6" t="n">
         <f>SUM(J8*K8)</f>
-        <v>1943.84</v>
+        <v>3583.2</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9" s="4" t="s">
+      <c r="B9" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="6">
-        <f>SUM(L8:L8)</f>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <f>SUM(J9*K9)</f>
+        <v>1950.4</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10" s="4" t="s">
+      <c r="B10" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="6">
-        <f>SUM(L9*12.0%)</f>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <f>SUM(J10*K10)</f>
+        <v>125.0</v>
       </c>
     </row>
     <row r="11">
@@ -415,49 +445,113 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="6">
-        <f>SUM(L9:L10)</f>
+        <f>SUM(L8:L10)</f>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s">
-        <v>18</v>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="6">
+        <f>SUM(L11*12.0%)</f>
       </c>
     </row>
     <row r="13">
       <c r="B13"/>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
+      <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="J13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="6">
+        <f>SUM(L11:L12)</f>
+      </c>
     </row>
     <row r="14">
-      <c r="B14"/>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="16"/>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="20"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:L1"/>
@@ -469,12 +563,16 @@
     <mergeCell ref="B6:L6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
